--- a/biology/Biochimie/Stéride/Stéride.xlsx
+++ b/biology/Biochimie/Stéride/Stéride.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9ride</t>
+          <t>Stéride</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les stérides ou esters de stérol sont un groupe hétérogène de composés chimiques, créés par l'estérification entre le groupe hydroxyle d'un stérol et un acide gras.
 On en trouve des traces dans tous les types de cellules, mais ils sont particulièrement présents dans les cellules spumeuses. On les trouve dans les lipoprotéines, dans le sang, où ils circulent à une concentration de 2 g·L-1.
